--- a/Invoice/COM1040924.xlsx
+++ b/Invoice/COM1040924.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SEG\docs\Invoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\Invoice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E977EE-D2F7-47DC-81DF-706900122EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03835091-77FD-4B3E-BF85-DBF1A5BB9E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>COMMERCIAL INVOICE</t>
   </si>
@@ -62,9 +84,6 @@
     <t>Total Quantity</t>
   </si>
   <si>
-    <t>Description of goods</t>
-  </si>
-  <si>
     <t>ISBN</t>
   </si>
   <si>
@@ -86,9 +105,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Total Books</t>
-  </si>
-  <si>
     <t>Unit (Rp.)</t>
   </si>
   <si>
@@ -104,49 +120,31 @@
     <t>Grand Total (Rp.)</t>
   </si>
   <si>
+    <t>Boost English 2 - Student Book</t>
+  </si>
+  <si>
+    <t>Total Items</t>
+  </si>
+  <si>
+    <t>Description of items</t>
+  </si>
+  <si>
+    <t>Boost English 1 - Student Book</t>
+  </si>
+  <si>
     <t>Boost English 3 - Student Book</t>
   </si>
   <si>
-    <t>9781685912796</t>
-  </si>
-  <si>
-    <t>Boost English 1 - Student Book</t>
-  </si>
-  <si>
-    <t>Boost English 2 - Student Book</t>
+    <t>COM1040924</t>
+  </si>
+  <si>
+    <t>Perumahan Villa Regency II Blok FG 7 No. 32, Kel. Gelam Jaya, Kec. Pasar Kemis, Tangerang</t>
   </si>
   <si>
     <t>Ronauli Sihombing - Arga English Course</t>
   </si>
   <si>
-    <t>085373263460</t>
-  </si>
-  <si>
-    <t>Perumahan Villa Regency II Blok FG 7 No. 32, Kel. Gelam Jaya, Kec. Pasar Kemis, Tangerang</t>
-  </si>
-  <si>
-    <t>9781685912758</t>
-  </si>
-  <si>
-    <t>9781685912772</t>
-  </si>
-  <si>
-    <t>9781613527948</t>
-  </si>
-  <si>
-    <t>9781613527962</t>
-  </si>
-  <si>
-    <t>COM1040924</t>
-  </si>
-  <si>
     <t>Treehouse 1 - Student Book</t>
-  </si>
-  <si>
-    <t>Treehouse 2 - Student Book</t>
-  </si>
-  <si>
-    <t>Treehouse 3 - Student Book</t>
   </si>
 </sst>
 </file>
@@ -157,7 +155,7 @@
     <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$Rp-3809]#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -232,6 +230,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -247,27 +262,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,19 +403,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF505050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF505050"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF505050"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -436,10 +423,87 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF505050"/>
       </left>
       <right style="thin">
         <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -452,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -490,10 +554,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -508,98 +569,136 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,7 +729,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>70010</xdr:colOff>
+      <xdr:colOff>232372</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>358588</xdr:rowOff>
     </xdr:to>
@@ -686,14 +785,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>166714</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1356518</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>158519</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1019,21 +1118,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32" style="5" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1065,389 +1164,356 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="25">
         <v>45391</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="40" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B7" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="18"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="18"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="18"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="42"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="18"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="42"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="21">
-        <f>SUM(H18:H23)</f>
-        <v>987000</v>
-      </c>
-      <c r="C15" s="22">
-        <f>COUNT(D18:D23)</f>
-        <v>6</v>
-      </c>
-      <c r="D15" s="22">
-        <f>SUM(D18:D23)</f>
-        <v>6</v>
-      </c>
-      <c r="E15" s="15"/>
+      <c r="B15" s="20">
+        <f>SUM(H18:H21)</f>
+        <v>426300</v>
+      </c>
+      <c r="C15" s="21">
+        <f>COUNT(D18:D21)</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="21">
+        <f>SUM(D18:D21)</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="E17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="43" t="s">
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="38" t="str" cm="1">
+        <f t="array" ref="C18">_xlfn.REGEXEXTRACT(_xlfn.WEBSERVICE("https://seg-server.vercel.app/api/books/isbn/"&amp;B18), "\d+")</f>
+        <v>9781685912758</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="41">
+        <f t="shared" ref="E18:E21" si="0">VALUE(_xlfn.WEBSERVICE("https://seg-server.vercel.app/api/books/price/"&amp;C18))</f>
+        <v>140000</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" ref="G18:G21" si="1">(E18-(E18*F18))</f>
+        <v>98000</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" ref="H18:H21" si="2">(E18-(E18*F18))*(D18)</f>
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="47">
+      <c r="C19" s="38" t="str" cm="1">
+        <f t="array" ref="C19">_xlfn.REGEXEXTRACT(_xlfn.WEBSERVICE("https://seg-server.vercel.app/api/books/isbn/"&amp;B19), "\d+")</f>
+        <v>9781685912772</v>
+      </c>
+      <c r="D19" s="32">
         <v>1</v>
       </c>
-      <c r="E18" s="48">
-        <v>140000</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="48">
-        <f t="shared" ref="G18:G23" si="0">((E18 - (E18*F18)) * 1)</f>
-        <v>140000</v>
-      </c>
-      <c r="H18" s="48">
-        <f t="shared" ref="H18:H23" si="1">((E18 - (E18*F18)) * 1)*(D18)</f>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="47">
-        <v>1</v>
-      </c>
-      <c r="E19" s="48">
-        <v>140000</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="48">
+      <c r="E19" s="41">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="H19" s="48">
+      <c r="F19" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="23">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>98000</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="2"/>
+        <v>98000</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="47">
+      <c r="B20" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="38" t="str" cm="1">
+        <f t="array" ref="C20">_xlfn.REGEXEXTRACT(_xlfn.WEBSERVICE("https://seg-server.vercel.app/api/books/isbn/"&amp;B20), "\d+")</f>
+        <v>9781685912796</v>
+      </c>
+      <c r="D20" s="32">
         <v>1</v>
       </c>
-      <c r="E20" s="48">
-        <v>140000</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="48">
+      <c r="E20" s="41">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="H20" s="48">
+      <c r="F20" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="23">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>98000</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="2"/>
+        <v>98000</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="47">
+      <c r="B21" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="38" t="str" cm="1">
+        <f t="array" ref="C21">_xlfn.REGEXEXTRACT(_xlfn.WEBSERVICE("https://seg-server.vercel.app/api/books/isbn/"&amp;B21), "\d+")</f>
+        <v>9781613527948</v>
+      </c>
+      <c r="D21" s="32">
         <v>1</v>
       </c>
-      <c r="E21" s="48">
-        <v>189000</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="48">
+      <c r="E21" s="41">
         <f t="shared" si="0"/>
         <v>189000</v>
       </c>
-      <c r="H21" s="48">
+      <c r="F21" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="23">
         <f t="shared" si="1"/>
-        <v>189000</v>
+        <v>132300</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="2"/>
+        <v>132300</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="47">
-        <v>1</v>
-      </c>
-      <c r="E22" s="48">
-        <v>189000</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="48">
-        <f t="shared" si="0"/>
-        <v>189000</v>
-      </c>
-      <c r="H22" s="48">
-        <f t="shared" si="1"/>
-        <v>189000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="46">
-        <v>9781613527986</v>
-      </c>
-      <c r="D23" s="47">
-        <v>1</v>
-      </c>
-      <c r="E23" s="48">
-        <v>189000</v>
-      </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="48">
-        <f t="shared" si="0"/>
-        <v>189000</v>
-      </c>
-      <c r="H23" s="48">
-        <f t="shared" si="1"/>
-        <v>189000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1">
-      <c r="G24" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="44">
-        <f>SUM(H18:H23)</f>
-        <v>987000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="13.5" customHeight="1"/>
-    <row r="26" spans="2:8" ht="15" customHeight="1">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="G22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="23">
+        <f>SUM(H18:H21)</f>
+        <v>426300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="29"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="32" t="s">
-        <v>20</v>
+      <c r="B27" s="31" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="29"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="E28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="2:8" ht="39" customHeight="1">
+      <c r="B29" s="29"/>
       <c r="E29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="2:8" ht="36" customHeight="1">
-      <c r="B30" s="28"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="2:8" ht="27" customHeight="1">
-      <c r="B31" s="28"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="29"/>
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="29"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="28"/>
-      <c r="E33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1457,14 +1523,15 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D10:G12"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>